--- a/evaluation/results/autoencoder/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
       <c r="C2">
-        <v>0.0675</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="D2">
         <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.1261682242990654</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="F2">
-        <v>0.263671875</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="G2">
-        <v>0.6381818181818182</v>
+        <v>0.6273458445040214</v>
       </c>
       <c r="H2">
-        <v>0.7623729266987694</v>
+        <v>0.7626404494382023</v>
       </c>
       <c r="I2">
         <v>27</v>
       </c>
       <c r="J2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9938271604938271</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="C2">
-        <v>0.301498127340824</v>
+        <v>0.2659176029962547</v>
       </c>
       <c r="D2">
-        <v>0.4626436781609196</v>
+        <v>0.4194977843426883</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.0675</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="C3">
         <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.1261682242990654</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
       <c r="C4">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
       <c r="D4">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
       <c r="E4">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5306635802469135</v>
+        <v>0.5287230669092244</v>
       </c>
       <c r="C5">
-        <v>0.6328919208132692</v>
+        <v>0.6151016586409845</v>
       </c>
       <c r="D5">
-        <v>0.2944059512299925</v>
+        <v>0.2701515767351025</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9476756293660208</v>
+        <v>0.9467438259936922</v>
       </c>
       <c r="C6">
-        <v>0.3345195729537366</v>
+        <v>0.300711743772242</v>
       </c>
       <c r="D6">
-        <v>0.4458797765450265</v>
+        <v>0.404616311698516</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C2">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
